--- a/data/trans_bre/P68-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P68-Habitat-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.139454267029222</v>
+        <v>-7.638896810771087</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.85403379863428</v>
+        <v>-15.59323658399855</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.53298680157009</v>
+        <v>-12.32945987726181</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.288949421023415</v>
+        <v>-5.647780781061077</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.3090550148184042</v>
+        <v>-0.3331576256401604</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.4789760588545581</v>
+        <v>-0.4737091204929695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4940286157857122</v>
+        <v>-0.4625843145634773</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.2225990138965469</v>
+        <v>-0.2331103198867466</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.790893225507643</v>
+        <v>7.837259747342692</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.284401437248563</v>
+        <v>2.88149707537365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.548583900437904</v>
+        <v>4.071643996603282</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.039643110588435</v>
+        <v>7.391012069960428</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4677898100759069</v>
+        <v>0.4303550627755574</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09262134539221406</v>
+        <v>0.1192281475232539</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2055837294396522</v>
+        <v>0.2324820423756037</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.397849366734268</v>
+        <v>0.4359975274069359</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-3.42993141167123</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>2.926728112478927</v>
+        <v>2.926728112478929</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.2485178612515539</v>
@@ -749,7 +749,7 @@
         <v>-0.1441324740974131</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.136420360684827</v>
+        <v>0.1364203606848272</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.17108291922193</v>
+        <v>-12.6423655749837</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.611633497001657</v>
+        <v>-6.325819121947146</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-9.626738856309135</v>
+        <v>-10.26929987868983</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-2.375579989265787</v>
+        <v>-1.86919564143713</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4333255484739786</v>
+        <v>-0.4444588653946003</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2635328882937478</v>
+        <v>-0.2522042873160727</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3609380878974869</v>
+        <v>-0.3887329093453267</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.09487397877131595</v>
+        <v>-0.07675812067928538</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.688428202626629</v>
+        <v>0.01461819059939487</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.436770116245444</v>
+        <v>6.811108617721602</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.564093524950468</v>
+        <v>3.308023388452953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.220060071906401</v>
+        <v>8.513142117632592</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02108579906852179</v>
+        <v>0.03334201877719632</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3622006193499128</v>
+        <v>0.324356577899016</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.163997805647788</v>
+        <v>0.1554324627537156</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4377423417449713</v>
+        <v>0.4539994329475768</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-6.378931295905524</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4.846194275625623</v>
+        <v>4.846194275625618</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.194032538366579</v>
@@ -849,7 +849,7 @@
         <v>-0.2092411522798847</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.2850767150484067</v>
+        <v>0.2850767150484064</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-12.56626015266306</v>
+        <v>-12.41544254884979</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.103551410854282</v>
+        <v>-8.670517726044967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.44208466160509</v>
+        <v>-13.27772248813721</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.227457281659701</v>
+        <v>-0.8608228531260025</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4188595019555362</v>
+        <v>-0.4092416208189463</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3048025316249905</v>
+        <v>-0.3172920856406283</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4040952834372032</v>
+        <v>-0.4005447703351707</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.05269318581437292</v>
+        <v>-0.04567391865961709</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.862148251271754</v>
+        <v>1.92827350121096</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.817662450800642</v>
+        <v>7.666848976914775</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.077545859368266</v>
+        <v>1.578009818940931</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10.82935636568275</v>
+        <v>10.96361626359736</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1109412972723163</v>
+        <v>0.08117306817001539</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3506922665500137</v>
+        <v>0.3511294577473714</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04230447894318521</v>
+        <v>0.06351847665749261</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.8123755610454436</v>
+        <v>0.7702001349594294</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-1.529239256796175</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>3.08951234255403</v>
+        <v>3.089512342554027</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.06897074229476302</v>
@@ -949,7 +949,7 @@
         <v>-0.0694158592244682</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.1471844228443747</v>
+        <v>0.1471844228443746</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.84669507897673</v>
+        <v>-7.311141749184359</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-4.405295116499564</v>
+        <v>-3.850708342338618</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.649302921968933</v>
+        <v>-8.67441892887031</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.253012448663427</v>
+        <v>-1.53692062041642</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2523379204825868</v>
+        <v>-0.2786907877491145</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.19822644329325</v>
+        <v>-0.1695338198907895</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3098116417973556</v>
+        <v>-0.3443496388354745</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.08801505214541051</v>
+        <v>-0.07651175963347857</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>4.638473899670275</v>
+        <v>4.575445218289806</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.508121202930271</v>
+        <v>8.303290781977109</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4.763354642989391</v>
+        <v>4.471709421391517</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.359580557692588</v>
+        <v>8.732382163999992</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2136725527330756</v>
+        <v>0.2062881071676427</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5214646657682375</v>
+        <v>0.4980760764509543</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2511615853316161</v>
+        <v>0.2378848834965882</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4693717005846038</v>
+        <v>0.4557774463509018</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-3.724880023428276</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.991963455423901</v>
+        <v>2.991963455423896</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1338204126455056</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1502647228101151</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.147948784461525</v>
+        <v>0.1479487844615247</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-6.54290424669759</v>
+        <v>-6.51508826668451</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.138277625292681</v>
+        <v>-4.318830090820311</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-7.555147362666373</v>
+        <v>-6.983693277171898</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.008924993143968883</v>
+        <v>0.2055014757728174</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2511143404861491</v>
+        <v>-0.2484361715693981</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.1655616156449638</v>
+        <v>-0.1740865282612894</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.2848204053617246</v>
+        <v>-0.2624703450849813</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.0005768627855659529</v>
+        <v>0.009548177524931726</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1933778518385788</v>
+        <v>-0.0213151350979501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.000764762724868</v>
+        <v>2.66799690279897</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.6201298003817114</v>
+        <v>-0.1736117944550656</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.94521837599038</v>
+        <v>5.494564204501118</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.004997342863817259</v>
+        <v>0.004506010130662294</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1429342933863088</v>
+        <v>0.1207673929234309</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.02607044466250623</v>
+        <v>-0.005456577875057904</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.3164929563668198</v>
+        <v>0.2932732727243136</v>
       </c>
     </row>
     <row r="19">
